--- a/biology/Botanique/Begonia_balmisiana/Begonia_balmisiana.xlsx
+++ b/biology/Botanique/Begonia_balmisiana/Begonia_balmisiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia balmisiana est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire du Mexique. L'espèce fait partie de la section Quadriperigonia. Elle a été décrite en 1794 par Francisco Xavier de Balmis i Berenguer (1753-1819). L'épithète spécifique balmisiana fait référence à son propre patronyme.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente au Mexique[2] dans l'Aguascalientes, le Colima, le Durango, le Guerrero, le Jalisco, l'Etat de Mexico, le Michoacan, le Morelos, le Nayarit, le Oaxaca, le Sinaloa, le Zacatecas[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente au Mexique dans l'Aguascalientes, le Colima, le Durango, le Guerrero, le Jalisco, l'Etat de Mexico, le Michoacan, le Morelos, le Nayarit, le Oaxaca, le Sinaloa, le Zacatecas.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (5 février 2017)[4] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (5 février 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Begonia balmisiana var. balmisiana
 variété Begonia balmisiana var. grandiflora Houghton ex Ziesenh.
 variété Begonia balmisiana var. mitelliflora A. DC.
